--- a/downloads/data/bnr-cvd-2023-table3.xlsx
+++ b/downloads/data/bnr-cvd-2023-table3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="102" uniqueCount="14">
   <si>
     <t>CVD Event Type (AMI=2, Stroke=1)</t>
   </si>
@@ -50,6 +50,12 @@
   <si>
     <t xml:space="preserve">  2023</t>
   </si>
+  <si>
+    <t>Prepared by Ian Hambleton on 20251119, for the Barbados National Registry</t>
+  </si>
+  <si>
+    <t>Prepared by Ian Hambleton on 2025-11-19, for the Barbados National Registry</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +64,1519 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="127">
+  <fonts count="505">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -576,7 +2094,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="127">
+  <borders count="505">
     <border>
       <left/>
       <right/>
@@ -1466,11 +2984,2657 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1973,6 +6137,1518 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="126" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="185" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="186" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="187" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="188" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="189" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="190" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="191" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="192" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="193" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="194" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="195" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="196" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="200" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="201" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="202" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="203" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="204" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="205" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="206" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="207" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="208" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="209" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="210" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="211" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="221" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="222" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="223" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="224" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="225" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="226" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="227" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="228" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="229" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="230" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="231" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="232" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="237" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="238" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="239" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="240" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="241" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="242" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="243" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="244" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="245" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="246" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="247" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="248" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="249" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="250" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="251" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="252" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="311" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="312" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="313" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="314" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="315" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="316" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="317" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="318" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="319" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="320" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="321" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="322" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="326" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="327" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="328" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="329" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="330" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="331" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="332" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="333" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="334" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="335" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="336" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="337" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="347" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="348" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="349" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="350" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="351" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="352" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="353" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="354" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="355" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="356" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="357" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="358" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="363" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="364" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="365" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="366" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="367" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="368" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="369" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="370" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="371" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="372" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="373" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="374" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="375" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="376" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="377" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="378" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="437" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="438" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="439" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="440" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="441" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="442" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="443" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="444" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="445" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="446" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="447" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="448" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="452" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="453" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="454" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="455" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="456" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="457" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="458" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="459" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="460" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="461" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="462" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="463" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="474" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="475" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="476" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="477" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="478" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="480" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="481" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="484" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="489" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="490" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="492" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="493" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="494" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="495" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="496" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="497" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="498" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="499" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="500" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="501" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="502" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="503" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="504" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1985,167 +7661,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="380"/>
+      <c r="B1" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="390" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="391" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="392" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="393"/>
+      <c r="B2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="400" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="400" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="402"/>
+      <c r="B3" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="409" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="409" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="411"/>
+      <c r="B4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="419" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="424"/>
+      <c r="C5" s="425"/>
+      <c r="D5" s="426"/>
+      <c r="E5" s="427"/>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="430" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="433" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="436" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="439">
         <v>35.075428009033203</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="442">
         <v>50.344432830810547</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="445">
         <v>30.869213104248047</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="448">
         <v>51.193058013916016</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="451" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="454">
         <v>64.924568176269531</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="457">
         <v>49.655570983886719</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="460">
         <v>69.130790710449219</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="463">
         <v>48.806941986083984</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="466" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="469" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="472" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="475">
         <v>31.449630737304688</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="478">
         <v>51.010101318359375</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="481">
         <v>31.835205078125</v>
       </c>
-      <c r="E12" s="106">
+      <c r="E12" s="484">
         <v>52.525253295898438</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="114">
+      <c r="B13" s="492">
         <v>68.550369262695313</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="496">
         <v>48.989898681640625</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="500">
         <v>68.164794921875</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="504">
         <v>47.474746704101563</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/data/bnr-cvd-2023-table3.xlsx
+++ b/downloads/data/bnr-cvd-2023-table3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="102" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="155" uniqueCount="16">
   <si>
     <t>CVD Event Type (AMI=2, Stroke=1)</t>
   </si>
@@ -56,6 +56,12 @@
   <si>
     <t>Prepared by Ian Hambleton on 2025-11-19, for the Barbados National Registry</t>
   </si>
+  <si>
+    <t>Table 3. Event Percentage among Younger Adults (&lt;70 years) and Older Adults (70+ years)</t>
+  </si>
+  <si>
+    <t>Prepared by Ian Hambleton on 2025-11-22, for the Barbados National Registry</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +70,1015 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="505">
+  <fonts count="757">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2094,7 +3108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="505">
+  <borders count="757">
     <border>
       <left/>
       <right/>
@@ -5630,11 +6644,1775 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="505">
+  <cellXfs count="757">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -7649,6 +10427,1014 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="504" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="563" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="564" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="565" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="567" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="569" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="570" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="571" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="573" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="579" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="581" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="582" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="583" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="584" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="585" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="587" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="588" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="589" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="599" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="600" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="601" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="603" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="605" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="606" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="607" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="608" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="609" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="610" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="615" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="617" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="618" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="619" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="620" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="621" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="623" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="624" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="625" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="626" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="627" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="629" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="689" fillId="0" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="691" fillId="0" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="0" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="0" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="694" fillId="0" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="0" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="0" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="697" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="0" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="0" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="700" fillId="0" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="706" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="0" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="0" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="0" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="725" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="726" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="727" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="728" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="729" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="730" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="731" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="732" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="733" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="734" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="752" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="755" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7661,181 +11447,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="380"/>
-      <c r="B1" s="389" t="s">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="632"/>
+      <c r="B2" s="641" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="390" t="s">
+      <c r="C2" s="642" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="391" t="s">
+      <c r="D2" s="643" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="392" t="s">
+      <c r="E2" s="644" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="393"/>
-      <c r="B2" s="396" t="s">
+    <row r="3">
+      <c r="A3" s="645"/>
+      <c r="B3" s="648" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="396" t="s">
+      <c r="C3" s="648" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="400" t="s">
+      <c r="D3" s="652" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="400" t="s">
+      <c r="E3" s="652" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="402"/>
-      <c r="B3" s="405" t="s">
+    <row r="4">
+      <c r="A4" s="654"/>
+      <c r="B4" s="657" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="405" t="s">
+      <c r="C4" s="657" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="409" t="s">
+      <c r="D4" s="661" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="409" t="s">
+      <c r="E4" s="661" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="411"/>
-      <c r="B4" s="413" t="s">
+    <row r="5">
+      <c r="A5" s="663"/>
+      <c r="B5" s="665" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="415" t="s">
+      <c r="C5" s="667" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="417" t="s">
+      <c r="D5" s="669" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="419" t="s">
+      <c r="E5" s="671" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="423" t="s">
+    <row r="6">
+      <c r="A6" s="675" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="424"/>
-      <c r="C5" s="425"/>
-      <c r="D5" s="426"/>
-      <c r="E5" s="427"/>
+      <c r="B6" s="676"/>
+      <c r="C6" s="677"/>
+      <c r="D6" s="678"/>
+      <c r="E6" s="679"/>
     </row>
-    <row r="6">
-      <c r="A6" s="430" t="s">
+    <row r="7">
+      <c r="A7" s="682" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="685" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="688" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="691">
+        <v>31.449630737304688</v>
+      </c>
+      <c r="C9" s="694">
+        <v>51.010101318359375</v>
+      </c>
+      <c r="D9" s="697">
+        <v>31.835205078125</v>
+      </c>
+      <c r="E9" s="700">
+        <v>52.525249481201172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="703" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="706">
+        <v>68.550369262695313</v>
+      </c>
+      <c r="C10" s="709">
+        <v>48.989902496337891</v>
+      </c>
+      <c r="D10" s="712">
+        <v>68.164794921875</v>
+      </c>
+      <c r="E10" s="715">
+        <v>47.474746704101563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="718" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="433" t="s">
+    <row r="12">
+      <c r="A12" s="721" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="436" t="s">
+    <row r="13">
+      <c r="A13" s="724" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="439">
-        <v>35.075428009033203</v>
+      <c r="B13" s="727">
+        <v>35.075431823730469</v>
       </c>
-      <c r="C8" s="442">
+      <c r="C13" s="730">
         <v>50.344432830810547</v>
       </c>
-      <c r="D8" s="445">
-        <v>30.869213104248047</v>
+      <c r="D13" s="733">
+        <v>30.869211196899414</v>
       </c>
-      <c r="E8" s="448">
+      <c r="E13" s="736">
         <v>51.193058013916016</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="451" t="s">
+    <row r="14">
+      <c r="A14" s="740" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="454">
+      <c r="B14" s="744">
         <v>64.924568176269531</v>
       </c>
-      <c r="C9" s="457">
-        <v>49.655570983886719</v>
+      <c r="C14" s="748">
+        <v>49.655567169189453</v>
       </c>
-      <c r="D9" s="460">
+      <c r="D14" s="752">
         <v>69.130790710449219</v>
       </c>
-      <c r="E9" s="463">
+      <c r="E14" s="756">
         <v>48.806941986083984</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="466" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="469" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="472" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="475">
-        <v>31.449630737304688</v>
-      </c>
-      <c r="C12" s="478">
-        <v>51.010101318359375</v>
-      </c>
-      <c r="D12" s="481">
-        <v>31.835205078125</v>
-      </c>
-      <c r="E12" s="484">
-        <v>52.525253295898438</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="488" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="492">
-        <v>68.550369262695313</v>
-      </c>
-      <c r="C13" s="496">
-        <v>48.989898681640625</v>
-      </c>
-      <c r="D13" s="500">
-        <v>68.164794921875</v>
-      </c>
-      <c r="E13" s="504">
-        <v>47.474746704101563</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
 </worksheet>
 </file>